--- a/REPORT/Figures/ExcelFig.xlsx
+++ b/REPORT/Figures/ExcelFig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>*</t>
   </si>
@@ -120,13 +120,97 @@
   </si>
   <si>
     <t>v6</t>
+  </si>
+  <si>
+    <t>Parameter of the model:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\begin{itemize}  \label{confusion} </t>
+  </si>
+  <si>
+    <t>\item Size of the word  embedding space: $d_E$.</t>
+  </si>
+  <si>
+    <t>\item Technique used for the word embedding training: cbow  or skip-gram.</t>
+  </si>
+  <si>
+    <t>\item Number of words embedding considered around the target word: $n_w$.</t>
+  </si>
+  <si>
+    <t>\item Kernell used for the spectral clustering:</t>
+  </si>
+  <si>
+    <t>\begin{enumerate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\item Cosine similarity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\item Knearest neighbours </t>
+  </si>
+  <si>
+    <t>\item $k(x,y)=exp(-\gamma ||x-y||_1)$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\end{enumerate} </t>
+  </si>
+  <si>
+    <t>Parameters of the models</t>
+  </si>
+  <si>
+    <t>WordEmbedding</t>
+  </si>
+  <si>
+    <t>CBOW</t>
+  </si>
+  <si>
+    <t>Skip-gram</t>
+  </si>
+  <si>
+    <t>Embedding Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Context window</t>
+  </si>
+  <si>
+    <t>Vocabulary Size</t>
+  </si>
+  <si>
+    <t>Spectral Clustering</t>
+  </si>
+  <si>
+    <t>Negative Sampling ( Skip-gram)</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>Cosine Similarity</t>
+  </si>
+  <si>
+    <t>K-nearest neighbor</t>
+  </si>
+  <si>
+    <t>Entity context</t>
+  </si>
+  <si>
+    <t>No context</t>
+  </si>
+  <si>
+    <t>2 words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 word </t>
+  </si>
+  <si>
+    <t>3 words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +224,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -193,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -281,34 +372,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,6 +444,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,11 +456,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,20 +474,100 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1873,6 +2086,121 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1231876" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7670800" y="8026400"/>
+              <a:ext cx="1231876" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <a:fld id="{33FB10D0-0A49-B54F-B01D-E0DC8E6BE53E}" type="mathplaceholder">
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" charset="0"/>
+                      </a:rPr>
+                      <a:t>Type equation here.</a:t>
+                    </a:fld>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7670800" y="8026400"/>
+              <a:ext cx="1231876" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" charset="0"/>
+                </a:rPr>
+                <a:t>"Type equation here."</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2139,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:O32"/>
+  <dimension ref="A6:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,268 +2480,268 @@
   <sheetData>
     <row r="6" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="20" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="25" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="26" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="28"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="14" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
     </row>
     <row r="16" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="8"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="8"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F20" s="6"/>
-      <c r="G20" s="27" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="27" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="17"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="18" t="s">
+      <c r="H21" s="16"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="19"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
@@ -2493,19 +2821,191 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="35" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="J39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="K40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="K41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="K42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+      <c r="K43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="K44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="L45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="L46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="L47" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="K48" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L9:M9"/>
+  <mergeCells count="33">
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A45:B48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="A41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A37:B40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="J7:O7"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="N9:O9"/>
@@ -2514,8 +3014,14 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>